--- a/biology/Médecine/Syndrome_ATR_16/Syndrome_ATR_16.xlsx
+++ b/biology/Médecine/Syndrome_ATR_16/Syndrome_ATR_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome ATR 16 ou syndrome délétion 16P est une maladie en rapport avec une délétion du bras court du chromosome 16. Cette délétion atteint les gènes HBA1 et HBA2 responsables de la thalassémie alpha.
@@ -514,9 +526,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:141750 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:141750 
  Portail de la médecine                     </t>
         </is>
       </c>
